--- a/testData/UserTestData.xlsx
+++ b/testData/UserTestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\PetStore_APIAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FE8C1-1EB3-4B41-9ED9-D1755706DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC54D9A6-6B34-4239-B0CE-964C76BEFF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="createUser" sheetId="1" r:id="rId1"/>
     <sheet name="getUser" sheetId="2" r:id="rId2"/>
     <sheet name="deleteUser" sheetId="3" r:id="rId3"/>
     <sheet name="updateUser" sheetId="4" r:id="rId4"/>
+    <sheet name="orderPet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -121,6 +122,36 @@
   </si>
   <si>
     <t>mitesh</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>PetId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>2024-10-22T09:17:46.682Z</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -192,13 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,9 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37966E-C5A3-4C39-8B34-7E06FA31DE9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -771,4 +801,62 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE294D-2316-4FA2-A56E-E69A50D23CD5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testData/UserTestData.xlsx
+++ b/testData/UserTestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\PetStore_APIAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451FE8C1-1EB3-4B41-9ED9-D1755706DC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB61C93C-8EAF-46C8-912C-26429C72A344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="createUser" sheetId="1" r:id="rId1"/>
     <sheet name="getUser" sheetId="2" r:id="rId2"/>
     <sheet name="deleteUser" sheetId="3" r:id="rId3"/>
     <sheet name="updateUser" sheetId="4" r:id="rId4"/>
+    <sheet name="orderPet" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>username</t>
   </si>
@@ -121,6 +122,36 @@
   </si>
   <si>
     <t>mitesh</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>PetId</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ShipDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>2024-10-22T09:17:46.682Z</t>
+  </si>
+  <si>
+    <t>placed</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -192,13 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,9 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B37966E-C5A3-4C39-8B34-7E06FA31DE9C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -771,4 +801,62 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBE294D-2316-4FA2-A56E-E69A50D23CD5}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="22.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>